--- a/pd_14b.xlsx
+++ b/pd_14b.xlsx
@@ -14,36 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Land</t>
+    <t>Age</t>
   </si>
   <si>
     <t>Alberto Franco</t>
   </si>
   <si>
-    <t>BRD</t>
-  </si>
-  <si>
     <t>Gino Mcneill</t>
   </si>
   <si>
-    <t>Niederland</t>
-  </si>
-  <si>
     <t>Eesha Hinton</t>
   </si>
   <si>
-    <t>England</t>
-  </si>
-  <si>
     <t>Syed Wharton</t>
-  </si>
-  <si>
-    <t>Griechenland</t>
   </si>
 </sst>
 </file>
@@ -51,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,7 +49,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -74,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,20 +91,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,48 +433,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="4">
+        <v>18.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>21.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
